--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -689,36 +689,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -727,18 +727,18 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -747,31 +747,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -781,51 +781,51 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -834,31 +834,31 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -868,51 +868,51 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -921,36 +921,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -984,22 +984,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1037,36 +1037,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1075,18 +1075,18 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1095,31 +1095,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1129,51 +1129,51 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1182,22 +1182,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1216,51 +1216,51 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1269,36 +1269,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1332,22 +1332,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45300</v>
+        <v>45296</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1376,11 +1376,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1390,22 +1390,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -1448,22 +1448,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1492,11 +1492,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45301</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1535,17 +1535,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1559,27 +1559,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45301</v>
+        <v>45295</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1593,51 +1593,51 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1651,45 +1651,1234 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="E52" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>41</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>34</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>47</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>37</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>38</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>8</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>8</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>42</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>6</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>44</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>35</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F84" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1974,7 +3163,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1983,7 +3172,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2002,7 +3191,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2011,7 +3200,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2030,7 +3219,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2039,7 +3228,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2058,7 +3247,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2067,7 +3256,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2095,7 +3284,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2123,7 +3312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2151,7 +3340,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2207,7 +3396,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2235,7 +3424,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2263,7 +3452,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2319,7 +3508,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2347,7 +3536,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2375,7 +3564,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2431,7 +3620,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2459,7 +3648,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2487,7 +3676,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45293</v>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>45293</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45293</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>45293</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>45293</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>45294</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>45294</v>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>45294</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>45294</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>45294</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>45293</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>45293</v>
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>45294</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>45294</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>45295</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>45295</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>45295</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>45293</v>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>45293</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>45294</v>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>45294</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>45294</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>45294</v>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>45297</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>45297</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>45297</v>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>45298</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>45298</v>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45293</v>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>45293</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45293</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>45293</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>45293</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>45294</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>45294</v>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>45294</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>45294</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>45294</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>45293</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>45293</v>
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>45294</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>45294</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>45295</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>45295</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>45295</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>45295</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>45293</v>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>45293</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>45294</v>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>45294</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>45295</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>45294</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>45294</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>45295</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>45295</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>45298</v>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>45298</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>45298</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>45298</v>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>45294</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>45294</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>45294</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>45295</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>45295</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>45295</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>45295</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>45295</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>45295</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>45295</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>45298</v>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>45298</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>45298</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>45298</v>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45293</v>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>45293</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45293</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>45293</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>45293</v>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>45294</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>45294</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>45294</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>45293</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>45293</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>45295</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>45295</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>45295</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>45295</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>45293</v>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>45293</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>45295</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>45295</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>45295</v>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45293</v>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>45293</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45293</v>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>45293</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>45293</v>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>45293</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>45293</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>45295</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>45295</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>45295</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>45293</v>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>45293</v>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>45296</v>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>45296</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>45296</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>45296</v>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>45297</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>45297</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>45297</v>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>45296</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>45298</v>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>45294</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>45294</v>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>45295</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>45295</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>45295</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>45295</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>45295</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>45296</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>45296</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>45295</v>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>45297</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>45297</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>45297</v>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>45295</v>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>45298</v>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>45298</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>45298</v>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45292</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45292</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45292</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45292</v>
@@ -593,36 +593,36 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -636,26 +636,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -665,26 +665,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -694,26 +694,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -727,18 +727,18 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -767,11 +767,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -805,7 +805,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45293</v>
@@ -834,7 +834,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>45293</v>
@@ -854,16 +854,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -887,12 +887,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>45293</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -921,22 +921,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -945,12 +945,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -959,18 +959,18 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -984,51 +984,51 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1075,22 +1075,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1104,18 +1104,18 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1129,22 +1129,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1173,40 +1173,40 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>45294</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1303,22 +1303,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1327,22 +1327,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1365,18 +1365,18 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1390,51 +1390,51 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1463,16 +1463,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1481,18 +1481,18 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1530,36 +1530,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1568,18 +1568,18 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1588,22 +1588,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1612,12 +1612,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1626,18 +1626,18 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1651,22 +1651,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1704,27 +1704,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1767,55 +1767,55 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1829,47 +1829,47 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1878,27 +1878,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1999,22 +1999,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2043,11 +2043,11 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2057,22 +2057,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2119,18 +2119,18 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2168,36 +2168,36 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2206,18 +2206,18 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2226,27 +2226,27 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2255,22 +2255,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2293,7 +2293,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>45296</v>
@@ -2304,11 +2304,11 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45300</v>
+        <v>45296</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2318,31 +2318,31 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2380,10 +2380,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -2405,26 +2405,26 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2438,51 +2438,51 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2496,18 +2496,18 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>45296</v>
@@ -2565,16 +2565,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2583,22 +2583,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2612,18 +2612,18 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2637,17 +2637,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>45297</v>
@@ -2681,36 +2681,36 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45301</v>
+        <v>45297</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2719,31 +2719,31 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2753,55 +2753,55 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45301</v>
+        <v>45297</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2826,11 +2826,11 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -2859,26 +2859,432 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>37</v>
-      </c>
-      <c r="F84" s="2" t="n">
+      <c r="E92" t="n">
+        <v>41</v>
+      </c>
+      <c r="F92" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>15</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>109</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>36</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>23</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>49</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2893,7 +3299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2948,7 +3354,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2995,16 +3401,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3028,11 +3434,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3047,20 +3453,20 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3069,22 +3475,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ORD_20240102_0</t>
+          <t>ORD_20240101_4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3097,7 +3503,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ORD_20240102_1</t>
+          <t>ORD_20240101_5</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3116,7 +3522,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3125,7 +3531,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ORD_20240102_2</t>
+          <t>ORD_20240102_0</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3541,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3153,26 +3559,26 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ORD_20240102_3</t>
+          <t>ORD_20240102_1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3181,13 +3587,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ORD_20240103_0</t>
+          <t>ORD_20240102_2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3196,7 +3602,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3209,26 +3615,26 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ORD_20240103_1</t>
+          <t>ORD_20240102_3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3237,26 +3643,26 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ORD_20240103_2</t>
+          <t>ORD_20240102_4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3265,17 +3671,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ORD_20240103_3</t>
+          <t>ORD_20240102_5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3284,7 +3690,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3293,17 +3699,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ORD_20240104_0</t>
+          <t>ORD_20240103_0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3312,7 +3718,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3321,13 +3727,13 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ORD_20240104_1</t>
+          <t>ORD_20240103_1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3336,11 +3742,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3349,26 +3755,26 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ORD_20240104_2</t>
+          <t>ORD_20240103_2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3377,13 +3783,13 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ORD_20240104_3</t>
+          <t>ORD_20240103_3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3392,11 +3798,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3405,13 +3811,13 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ORD_20240105_0</t>
+          <t>ORD_20240103_4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3420,11 +3826,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3433,17 +3839,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ORD_20240105_1</t>
+          <t>ORD_20240103_5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3452,7 +3858,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3461,17 +3867,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ORD_20240105_2</t>
+          <t>ORD_20240104_0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3480,7 +3886,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3489,13 +3895,13 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ORD_20240105_3</t>
+          <t>ORD_20240104_1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3504,11 +3910,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3517,26 +3923,26 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ORD_20240106_0</t>
+          <t>ORD_20240104_2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3545,13 +3951,13 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ORD_20240106_1</t>
+          <t>ORD_20240104_3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3560,11 +3966,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3573,13 +3979,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ORD_20240106_2</t>
+          <t>ORD_20240104_4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3588,7 +3994,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -3601,13 +4007,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ORD_20240106_3</t>
+          <t>ORD_20240104_5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3620,7 +4026,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3629,13 +4035,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ORD_20240107_0</t>
+          <t>ORD_20240105_0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3648,7 +4054,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3657,26 +4063,26 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ORD_20240107_1</t>
+          <t>ORD_20240105_1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3685,35 +4091,427 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ORD_20240107_2</t>
+          <t>ORD_20240105_2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ORD_20240105_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ORD_20240105_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ORD_20240105_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>49</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ORD_20240106_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>53</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ORD_20240106_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>35</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ORD_20240106_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>24</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ORD_20240106_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ORD_20240106_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ORD_20240106_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>48</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>customer</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ORD_20240107_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>122</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ORD_20240107_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>36</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ORD_20240107_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>26</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>ORD_20240107_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ORD_20240107_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ORD_20240107_5</t>
         </is>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_order_shipment_cut_report.xlsx
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>45294</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>45294</v>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>45294</v>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>45294</v>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>45294</v>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>45295</v>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>45295</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>45295</v>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>45295</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>45295</v>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>45294</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>45295</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>45295</v>
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>45296</v>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>45296</v>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>45296</v>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>45296</v>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>45294</v>
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>45295</v>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>45295</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>45296</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>45297</v>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>45297</v>
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>45297</v>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>45297</v>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>45295</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>45295</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>45296</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>45297</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>45298</v>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>45298</v>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>45298</v>
@@ -3690,7 +3690,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
